--- a/HLR and Testcase/hlr for megneto.softwaretestingboard.com.xlsx
+++ b/HLR and Testcase/hlr for megneto.softwaretestingboard.com.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B8BB08-EB63-456A-B3E7-3809D2C596DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>functionality id</t>
   </si>
@@ -252,9 +258,6 @@
     <t>check color variation inside women and men menu</t>
   </si>
   <si>
-    <t>while clicking on color variation inside women and men menu it is working properly but while click color option different color show in option and images</t>
-  </si>
-  <si>
     <t xml:space="preserve">check search product menu </t>
   </si>
   <si>
@@ -271,12 +274,150 @@
   </si>
   <si>
     <t>while clicking on profile all dropdown option its is all option working properly</t>
+  </si>
+  <si>
+    <t>while clicking on color variation inside women and men menu it is working properly but while click color option different color show in images</t>
+  </si>
+  <si>
+    <t>check add to cart icon</t>
+  </si>
+  <si>
+    <t>While clicking on add to cart icon its working properly and also product had added to cart</t>
+  </si>
+  <si>
+    <t>check shopping cart link</t>
+  </si>
+  <si>
+    <t>while clicking on shopping cart link it is working properly and also open the new page</t>
+  </si>
+  <si>
+    <t>check edit item icon</t>
+  </si>
+  <si>
+    <t>while clicking on edit item icon it is working properly and also get back to product page</t>
+  </si>
+  <si>
+    <t>check update cart button</t>
+  </si>
+  <si>
+    <t>while clicking on update cart button ti is working properly and also change qty</t>
+  </si>
+  <si>
+    <t>check delete icon</t>
+  </si>
+  <si>
+    <t>while clicking on delete icon it is working properly and also had remove the product from cart</t>
+  </si>
+  <si>
+    <t>while clicking on proceed to checkout button it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check proceed to checkout button</t>
+  </si>
+  <si>
+    <t>check shpping address detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all shpping details are sucessfully fill </t>
+  </si>
+  <si>
+    <t>check next button</t>
+  </si>
+  <si>
+    <t>while clicking on next button it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check place order button</t>
+  </si>
+  <si>
+    <t>while clicking on place order button it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check continue shopping button</t>
+  </si>
+  <si>
+    <t>while clicking on continue shopping button it is working properly and also get back to home page</t>
+  </si>
+  <si>
+    <t>check product image</t>
+  </si>
+  <si>
+    <t>while clicking on product image it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check add to wish list link</t>
+  </si>
+  <si>
+    <t>while clicking on add to wish list link it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check add to compare link</t>
+  </si>
+  <si>
+    <t>check comparison list link</t>
+  </si>
+  <si>
+    <t>while clicking on comparison list link it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check print test page link</t>
+  </si>
+  <si>
+    <t>while clicking on comparison list link it is working properly and also had open the print dashboard</t>
+  </si>
+  <si>
+    <t>check about us link</t>
+  </si>
+  <si>
+    <t>while clicking on about us link it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check customer service link</t>
+  </si>
+  <si>
+    <t>while clicking on customer service link it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check search terms link</t>
+  </si>
+  <si>
+    <t>while clicking on search terms link it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check Privacy and Cookie Policy link</t>
+  </si>
+  <si>
+    <t>while clicking on Privacy and Cookie Policy link it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check advance search link</t>
+  </si>
+  <si>
+    <t>while clicking on advance search link it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check contact us link</t>
+  </si>
+  <si>
+    <t>while clicking on contact us link it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>Check subscribe button</t>
+  </si>
+  <si>
+    <t>while clicking on subscribe button it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>check sign out link</t>
+  </si>
+  <si>
+    <t>while clicking on sign out link its working properly and also had signed out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,6 +531,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -437,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,9 +614,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,6 +666,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,17 +858,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -831,10 +1009,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -842,10 +1020,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -853,10 +1031,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1123,142 +1301,280 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>817</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>818</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>818</v>
-      </c>
-      <c r="B41" s="7" t="s">
+    <row r="42" spans="1:3" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>819</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="C42" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>820</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>821</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>822</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>823</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>824</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>825</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A49" s="4">
+        <v>826</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>827</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>828</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>829</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>830</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>831</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>832</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>833</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>834</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>835</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>836</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>837</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>838</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>839</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>840</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>841</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
@@ -1347,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1359,7 +1675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/HLR and Testcase/hlr for megneto.softwaretestingboard.com.xlsx
+++ b/HLR and Testcase/hlr for megneto.softwaretestingboard.com.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B8BB08-EB63-456A-B3E7-3809D2C596DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300AF6AB-FAB0-49FD-B12B-EB292DDD7F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,23 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>functionality id</t>
   </si>
@@ -412,6 +423,42 @@
   </si>
   <si>
     <t>while clicking on sign out link its working properly and also had signed out</t>
+  </si>
+  <si>
+    <t>check style dropdown menu</t>
+  </si>
+  <si>
+    <t>check clear all link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking clear all link it is working properly and also get back to normal </t>
+  </si>
+  <si>
+    <t>check shopping options</t>
+  </si>
+  <si>
+    <t>while check shopping options its all working properly but some drop down menu add multi time (style )</t>
+  </si>
+  <si>
+    <t>while clicking on style dropdown menu it is all options working properly and also open a new page</t>
+  </si>
+  <si>
+    <t>check grid icon</t>
+  </si>
+  <si>
+    <t>while click grid icon its working properly</t>
+  </si>
+  <si>
+    <t>check list icon</t>
+  </si>
+  <si>
+    <t>while click list icon its working properly</t>
+  </si>
+  <si>
+    <t>check short by drop down menu</t>
+  </si>
+  <si>
+    <t>while click sort by drop down menu it is all options working properly</t>
   </si>
 </sst>
 </file>
@@ -861,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,15 +1370,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>819</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>82</v>
+      <c r="B42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1339,43 +1386,43 @@
         <v>820</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>821</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>822</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>823</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1383,32 +1430,32 @@
         <v>824</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>825</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>826</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1416,10 +1463,10 @@
         <v>827</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1427,10 +1474,10 @@
         <v>828</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1438,10 +1485,10 @@
         <v>829</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1449,10 +1496,10 @@
         <v>830</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1460,21 +1507,21 @@
         <v>831</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>832</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1482,10 +1529,10 @@
         <v>833</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1493,10 +1540,10 @@
         <v>834</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1504,10 +1551,10 @@
         <v>835</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1515,10 +1562,10 @@
         <v>836</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1526,10 +1573,10 @@
         <v>837</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1537,10 +1584,10 @@
         <v>838</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1548,10 +1595,10 @@
         <v>839</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1559,10 +1606,10 @@
         <v>840</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -1570,66 +1617,102 @@
         <v>841</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>842</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>843</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>844</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>845</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>846</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>847</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>

--- a/HLR and Testcase/hlr for megneto.softwaretestingboard.com.xlsx
+++ b/HLR and Testcase/hlr for megneto.softwaretestingboard.com.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300AF6AB-FAB0-49FD-B12B-EB292DDD7F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91D3CE-A71D-4242-9E69-3B3CFBA8A9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="210">
   <si>
     <t>functionality id</t>
   </si>
@@ -56,13 +56,7 @@
     <t>while clicking on create an account link it is working properly and open a new page</t>
   </si>
   <si>
-    <t>check create a new customer account</t>
-  </si>
-  <si>
     <t>while entering a personal information (First Name,Last Name,Email id and Password ) it is fill successfully and open a new page</t>
-  </si>
-  <si>
-    <t>check login button</t>
   </si>
   <si>
     <t>while entering a email id and password and click on login button it is working properly and open a new page</t>
@@ -326,12 +320,6 @@
     <t>check proceed to checkout button</t>
   </si>
   <si>
-    <t>check shpping address detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all shpping details are sucessfully fill </t>
-  </si>
-  <si>
     <t>check next button</t>
   </si>
   <si>
@@ -459,13 +447,249 @@
   </si>
   <si>
     <t>while click sort by drop down menu it is all options working properly</t>
+  </si>
+  <si>
+    <t>check shopping address detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all shopping details are sucessfully fill </t>
+  </si>
+  <si>
+    <t>check shop pants link</t>
+  </si>
+  <si>
+    <t>while clicking on shop pants link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check shop Tees link</t>
+  </si>
+  <si>
+    <t>while clicking on shop Tees link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check Shop Erin Recommends link</t>
+  </si>
+  <si>
+    <t>while clicking on shop Erin Recommends link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check shop preformance link</t>
+  </si>
+  <si>
+    <t>while clicking on shop performance link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check Eco Friendly link</t>
+  </si>
+  <si>
+    <t>while clicking on eco friendly link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check multiple address link</t>
+  </si>
+  <si>
+    <t>check go to shipping information button</t>
+  </si>
+  <si>
+    <t>while clicking on go to shipping information button  it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check continue to billing information button</t>
+  </si>
+  <si>
+    <t>while clicking on go to shipping information button it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check change link</t>
+  </si>
+  <si>
+    <t>while clicking on change link it is working properly and get back to edit shipping address detail page</t>
+  </si>
+  <si>
+    <t>check save address button</t>
+  </si>
+  <si>
+    <t>while clicking on save address button it is working properly and get back to select shpping method page</t>
+  </si>
+  <si>
+    <t>check edit item link</t>
+  </si>
+  <si>
+    <t>while clicking on edit item link it is working properly and get back to Ship to Multiple Addresses page</t>
+  </si>
+  <si>
+    <t>check back to shopping cart link</t>
+  </si>
+  <si>
+    <t>while clicking on back to shopping cart link it is working properly and get back to Shopping Cart page</t>
+  </si>
+  <si>
+    <t>check update qty &amp; address button</t>
+  </si>
+  <si>
+    <t>while clicking on update qty &amp; address button it is working properly and get back to Ship to Multiple Addresses page</t>
+  </si>
+  <si>
+    <t>check enter a new address button</t>
+  </si>
+  <si>
+    <t>while clicking on enter a new address button it is working properly and get back to Create Shipping Address page</t>
+  </si>
+  <si>
+    <t>check go to review your order button</t>
+  </si>
+  <si>
+    <t>while clicking on go to review your order button it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check back to billing information button</t>
+  </si>
+  <si>
+    <t>while clicking on back to biling information button it is working properly and get back to biling information page</t>
+  </si>
+  <si>
+    <t>while clicking on multiple address link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check shop yoga kit button</t>
+  </si>
+  <si>
+    <t>while clicking on shop yoga kit button it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check shop fitness link</t>
+  </si>
+  <si>
+    <t>check shop bags link</t>
+  </si>
+  <si>
+    <t>while clicking on shop fitness link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>while clicking on shop bags link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check shop equipment link</t>
+  </si>
+  <si>
+    <t>while clicking on shop equipment link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check shop watches link</t>
+  </si>
+  <si>
+    <t>while clicking on shop watches link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t>check compare product link</t>
+  </si>
+  <si>
+    <t>while clicking on compare product link it is working properly and also had open the new page</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Functionality ID</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>check website Url</t>
+  </si>
+  <si>
+    <t>internet and browser must be in the working condition</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>To open the website properly</t>
+  </si>
+  <si>
+    <t>as per the expected result</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on create a account link</t>
+  </si>
+  <si>
+    <t>Create New Customer Account dashboard page open properly</t>
+  </si>
+  <si>
+    <t>check create an account button</t>
+  </si>
+  <si>
+    <t>1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on create a account link
+4) click on create an account button</t>
+  </si>
+  <si>
+    <t>check sign in link</t>
+  </si>
+  <si>
+    <t>check sign in button</t>
+  </si>
+  <si>
+    <t>while clicking on sign in link it is working properly and open a new page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) https://magento.softwaretestingboard.com
+2) press enter key
+3) click on sign link
+4) click on sign in button
+</t>
+  </si>
+  <si>
+    <t>user dashboard should be properly opened with the user details</t>
+  </si>
+  <si>
+    <t>check login button with correct email id and password</t>
+  </si>
+  <si>
+    <t>email id: niravgoti1236@gmail.com
+password: Jhoncena@15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +720,20 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -547,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -567,6 +805,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,10 +1208,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -968,10 +1219,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
@@ -979,765 +1230,1018 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>800</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>900</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>801</v>
+        <v>1000</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>802</v>
+        <v>1100</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>803</v>
+        <v>1101</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>804</v>
+        <v>1200</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>805</v>
+        <v>1300</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>806</v>
+        <v>1400</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>807</v>
+        <v>1500</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>808</v>
+        <v>1600</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>809</v>
+        <v>1700</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>810</v>
+        <v>1800</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>811</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>1801</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>812</v>
+        <v>1900</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>813</v>
+        <v>2000</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>814</v>
+        <v>3000</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>815</v>
+        <v>4000</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>816</v>
+        <v>5000</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>817</v>
+        <v>6000</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>818</v>
+        <v>7000</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>819</v>
+        <v>8000</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>820</v>
+        <v>9000</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>821</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>822</v>
+        <v>11000</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>823</v>
+        <v>12000</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>824</v>
+        <v>12001</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>825</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>82</v>
+        <v>12002</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>826</v>
+        <v>12003</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>827</v>
+        <v>12004</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>828</v>
+        <v>12005</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>829</v>
+        <v>12006</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>830</v>
+        <v>12007</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>831</v>
+        <v>12008</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>832</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>12009</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>833</v>
+        <v>12010</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>834</v>
+        <v>12011</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>835</v>
+        <v>12012</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>836</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>106</v>
+        <v>12013</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>837</v>
+        <v>12014</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>838</v>
+        <v>12015</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>839</v>
+        <v>12016</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>840</v>
+        <v>12017</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>841</v>
+        <v>12018</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>842</v>
+        <v>12019</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>843</v>
+        <v>12020</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>844</v>
+        <v>12021</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>845</v>
+        <v>12022</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>846</v>
+        <v>12023</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>847</v>
+        <v>12024</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>12025</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>12026</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>12027</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>12028</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>12029</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>12030</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>12031</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>12032</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>12033</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>12034</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>12035</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>12036</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>12037</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>12038</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>12039</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>12040</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>12041</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>12042</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>12043</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>12044</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>12045</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>12046</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>12047</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,13 +2251,1248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+    </row>
+    <row r="98" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/HLR and Testcase/hlr for megneto.softwaretestingboard.com.xlsx
+++ b/HLR and Testcase/hlr for megneto.softwaretestingboard.com.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NCS\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91D3CE-A71D-4242-9E69-3B3CFBA8A9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15960B34-A240-4EA6-B66D-27E11784A897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="214">
   <si>
     <t>functionality id</t>
   </si>
@@ -684,12 +682,26 @@
     <t>email id: niravgoti1236@gmail.com
 password: Jhoncena@15</t>
   </si>
+  <si>
+    <t>check login button with correct email id and blank password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email id: niravgoti1236@gmail.com
+password: </t>
+  </si>
+  <si>
+    <t>check login button with blank email id and correct password</t>
+  </si>
+  <si>
+    <t>email id: 
+password: Jhoncena@15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +746,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -800,7 +818,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2251,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,7 +2317,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2357,7 +2375,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2415,9 +2433,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:9" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -2444,29 +2462,65 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2477,7 +2531,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2488,7 +2542,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2499,7 +2553,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2510,7 +2564,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2521,7 +2575,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2532,7 +2586,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2543,7 +2597,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2554,7 +2608,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2565,7 +2619,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2576,7 +2630,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2587,7 +2641,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2598,7 +2652,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2609,7 +2663,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2620,7 +2674,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2631,7 +2685,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2642,7 +2696,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2653,7 +2707,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2664,7 +2718,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2675,7 +2729,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2686,7 +2740,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2697,7 +2751,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2708,7 +2762,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2719,7 +2773,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2730,7 +2784,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2741,7 +2795,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2752,7 +2806,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2763,7 +2817,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2774,7 +2828,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2785,7 +2839,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2796,7 +2850,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2807,7 +2861,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2818,7 +2872,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2829,7 +2883,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2840,7 +2894,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2851,7 +2905,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2862,7 +2916,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2873,7 +2927,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2884,7 +2938,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2895,7 +2949,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2906,7 +2960,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2917,7 +2971,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2928,7 +2982,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2939,7 +2993,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2950,7 +3004,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2961,7 +3015,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2972,7 +3026,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2983,7 +3037,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2994,7 +3048,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3005,7 +3059,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3016,7 +3070,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3027,7 +3081,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3038,7 +3092,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3049,7 +3103,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3060,7 +3114,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3071,7 +3125,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3082,7 +3136,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3093,7 +3147,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3104,7 +3158,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3115,7 +3169,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3126,7 +3180,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -3137,7 +3191,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3148,7 +3202,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3159,7 +3213,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3170,7 +3224,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3181,7 +3235,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3192,7 +3246,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3203,7 +3257,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3214,7 +3268,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3225,7 +3279,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3236,7 +3290,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3247,7 +3301,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3258,7 +3312,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3269,7 +3323,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3280,7 +3334,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3291,7 +3345,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3302,7 +3356,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3313,7 +3367,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3324,7 +3378,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3335,7 +3389,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3346,7 +3400,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3357,7 +3411,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3368,7 +3422,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3379,7 +3433,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3390,7 +3444,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3401,7 +3455,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3412,7 +3466,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3423,7 +3477,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3434,7 +3488,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3445,7 +3499,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3456,7 +3510,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3467,7 +3521,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3478,7 +3532,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3489,8 +3543,8 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
